--- a/Results/Opinion/FOOD.xlsx
+++ b/Results/Opinion/FOOD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="102">
   <si>
     <t>opini</t>
   </si>
@@ -76,9 +76,6 @@
     <t>cold</t>
   </si>
   <si>
-    <t>complimentary</t>
-  </si>
-  <si>
     <t>crunchy</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
     <t>other</t>
   </si>
   <si>
-    <t>overpriced</t>
-  </si>
-  <si>
     <t>phenomenal</t>
   </si>
   <si>
@@ -278,9 +272,6 @@
   </si>
   <si>
     <t>sure</t>
-  </si>
-  <si>
-    <t>sweet</t>
   </si>
   <si>
     <t>taiwanese</t>
@@ -686,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -708,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -719,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -730,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -741,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -752,7 +743,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -763,7 +754,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -774,7 +765,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -785,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -796,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -807,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -818,7 +809,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -829,7 +820,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -840,7 +831,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -851,7 +842,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -862,7 +853,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -873,7 +864,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -884,7 +875,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -895,7 +886,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -906,7 +897,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -917,7 +908,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -928,7 +919,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -939,7 +930,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -950,7 +941,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -961,7 +952,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -972,7 +963,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -983,7 +974,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -994,7 +985,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1005,7 +996,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1016,7 +1007,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1027,7 +1018,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1038,7 +1029,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1049,7 +1040,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1060,7 +1051,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1071,7 +1062,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1082,7 +1073,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1093,7 +1084,7 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1104,7 +1095,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1115,7 +1106,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1126,7 +1117,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1137,7 +1128,7 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1148,7 +1139,7 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1159,7 +1150,7 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1170,7 +1161,7 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1181,7 +1172,7 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1192,7 +1183,7 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1203,7 +1194,7 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1214,7 +1205,7 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1225,7 +1216,7 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1236,7 +1227,7 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1247,7 +1238,7 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1258,7 +1249,7 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1269,7 +1260,7 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1280,7 +1271,7 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1291,7 +1282,7 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1302,7 +1293,7 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1313,7 +1304,7 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1324,7 +1315,7 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1335,7 +1326,7 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1346,7 +1337,7 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1357,7 +1348,7 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1368,7 +1359,7 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1379,7 +1370,7 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1390,7 +1381,7 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1401,7 +1392,7 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1412,7 +1403,7 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1423,7 +1414,7 @@
         <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1434,7 +1425,7 @@
         <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1445,7 +1436,7 @@
         <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1456,7 +1447,7 @@
         <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1467,7 +1458,7 @@
         <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1478,7 +1469,7 @@
         <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1489,7 +1480,7 @@
         <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1500,7 +1491,7 @@
         <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1511,7 +1502,7 @@
         <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1522,7 +1513,7 @@
         <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1533,7 +1524,7 @@
         <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1544,7 +1535,7 @@
         <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1555,7 +1546,7 @@
         <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1566,7 +1557,7 @@
         <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1577,7 +1568,7 @@
         <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1588,7 +1579,7 @@
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1599,7 +1590,7 @@
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1610,7 +1601,7 @@
         <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1621,7 +1612,7 @@
         <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1632,7 +1623,7 @@
         <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1643,7 +1634,7 @@
         <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1654,7 +1645,7 @@
         <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1665,7 +1656,7 @@
         <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1676,7 +1667,7 @@
         <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1687,7 +1678,7 @@
         <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1698,7 +1689,7 @@
         <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1709,7 +1700,7 @@
         <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1720,7 +1711,7 @@
         <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1731,7 +1722,7 @@
         <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1742,7 +1733,7 @@
         <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1753,7 +1744,7 @@
         <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1764,7 +1755,7 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1775,40 +1766,7 @@
         <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>100</v>
-      </c>
-      <c r="C100" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>101</v>
-      </c>
-      <c r="C101" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>102</v>
-      </c>
-      <c r="C102" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Opinion/FOOD.xlsx
+++ b/Results/Opinion/FOOD.xlsx
@@ -49,9 +49,6 @@
     <t>bad</t>
   </si>
   <si>
-    <t>baked</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
     <t>extensive</t>
   </si>
   <si>
+    <t>fancy</t>
+  </si>
+  <si>
     <t>fantastic</t>
   </si>
   <si>
@@ -169,9 +169,6 @@
     <t>inedible</t>
   </si>
   <si>
-    <t>inexpensive</t>
-  </si>
-  <si>
     <t>innovative</t>
   </si>
   <si>
@@ -241,9 +238,6 @@
     <t>reasonable</t>
   </si>
   <si>
-    <t>refreshing</t>
-  </si>
-  <si>
     <t>rough</t>
   </si>
   <si>
@@ -265,6 +259,9 @@
     <t>speedy</t>
   </si>
   <si>
+    <t>stale</t>
+  </si>
+  <si>
     <t>such</t>
   </si>
   <si>
@@ -302,6 +299,9 @@
   </si>
   <si>
     <t>upstate</t>
+  </si>
+  <si>
+    <t>weird</t>
   </si>
   <si>
     <t>welll</t>
@@ -710,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -743,7 +743,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -765,7 +765,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -776,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -798,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -809,7 +809,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -831,7 +831,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -842,7 +842,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -853,7 +853,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -864,7 +864,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -875,7 +875,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -897,7 +897,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -908,7 +908,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -930,7 +930,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -941,7 +941,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -952,7 +952,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -963,7 +963,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -996,7 +996,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1007,7 +1007,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1040,7 +1040,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1062,7 +1062,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1073,7 +1073,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1084,7 +1084,7 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1106,7 +1106,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1139,7 +1139,7 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1172,7 +1172,7 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1238,7 +1238,7 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1260,7 +1260,7 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1282,7 +1282,7 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1304,7 +1304,7 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1326,7 +1326,7 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1337,7 +1337,7 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1348,7 +1348,7 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1359,7 +1359,7 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1370,7 +1370,7 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1392,7 +1392,7 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1403,7 +1403,7 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1447,7 +1447,7 @@
         <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1458,7 +1458,7 @@
         <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1480,7 +1480,7 @@
         <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1524,7 +1524,7 @@
         <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1546,7 +1546,7 @@
         <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1590,7 +1590,7 @@
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1645,7 +1645,7 @@
         <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1667,7 +1667,7 @@
         <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1689,7 +1689,7 @@
         <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1711,7 +1711,7 @@
         <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1733,7 +1733,7 @@
         <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1744,7 +1744,7 @@
         <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1766,7 +1766,7 @@
         <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
